--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracielaaguilar/Desktop/fltk-RRS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="627"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -14,8 +19,11 @@
     <sheet name="Sprint 4 Backlog" sheetId="6" r:id="rId5"/>
     <sheet name="Sprint 5 Backlog" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="153">
   <si>
     <t>Product Name:</t>
   </si>
@@ -419,9 +427,6 @@
   <si>
     <t>This likely means using threads for key processes
 (Probably can't address until Homework #6)</t>
-  </si>
-  <si>
-    <t>*** Example Only – Set up a tab for EACH SPRINT ***</t>
   </si>
   <si>
     <t>Start on</t>
@@ -745,6 +750,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -797,6 +807,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -804,6 +821,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -851,13 +873,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117359560"/>
-        <c:axId val="2117365272"/>
+        <c:axId val="1184183216"/>
+        <c:axId val="1184186944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117359560"/>
+        <c:axId val="1184183216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +915,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2117365272"/>
+        <c:crossAx val="1184186944"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +923,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117365272"/>
+        <c:axId val="1184186944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +970,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2117359560"/>
+        <c:crossAx val="1184183216"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1014,6 +1035,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1037,6 +1059,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1044,6 +1073,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1088,13 +1122,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117417256"/>
-        <c:axId val="2131318040"/>
+        <c:axId val="1184215280"/>
+        <c:axId val="1184219040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117417256"/>
+        <c:axId val="1184215280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,6 +1151,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1130,7 +1164,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2131318040"/>
+        <c:crossAx val="1184219040"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1172,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131318040"/>
+        <c:axId val="1184219040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,6 +1205,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1184,7 +1219,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2117417256"/>
+        <c:crossAx val="1184215280"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1273,6 +1308,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1280,6 +1322,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1324,13 +1371,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122319160"/>
-        <c:axId val="2131070024"/>
+        <c:axId val="1184246464"/>
+        <c:axId val="1184250224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122319160"/>
+        <c:axId val="1184246464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1413,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2131070024"/>
+        <c:crossAx val="1184250224"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1375,7 +1421,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131070024"/>
+        <c:axId val="1184250224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1468,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2122319160"/>
+        <c:crossAx val="1184246464"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,6 +1533,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1510,6 +1557,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1517,6 +1571,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1561,13 +1620,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115739448"/>
-        <c:axId val="2115858680"/>
+        <c:axId val="1147533536"/>
+        <c:axId val="1147536656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115739448"/>
+        <c:axId val="1147533536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,6 +1649,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1603,7 +1662,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2115858680"/>
+        <c:crossAx val="1147536656"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1611,7 +1670,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115858680"/>
+        <c:axId val="1147536656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,6 +1703,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1657,7 +1717,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2115739448"/>
+        <c:crossAx val="1147533536"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1722,6 +1782,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1745,6 +1806,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1752,6 +1820,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1796,13 +1869,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2071191432"/>
-        <c:axId val="2071198824"/>
+        <c:axId val="1147569872"/>
+        <c:axId val="1147573632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2071191432"/>
+        <c:axId val="1147569872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,6 +1898,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1838,7 +1911,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2071198824"/>
+        <c:crossAx val="1147573632"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1846,7 +1919,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071198824"/>
+        <c:axId val="1147573632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,6 +1952,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1892,7 +1966,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2071191432"/>
+        <c:crossAx val="1147569872"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,6 +2024,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1973,6 +2048,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1980,6 +2062,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -2024,13 +2111,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115718712"/>
-        <c:axId val="2115652824"/>
+        <c:axId val="1105743856"/>
+        <c:axId val="1105747616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115718712"/>
+        <c:axId val="1105743856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,6 +2140,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2066,7 +2153,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2115652824"/>
+        <c:crossAx val="1105747616"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2074,7 +2161,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115652824"/>
+        <c:axId val="1105747616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,6 +2194,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2120,7 +2208,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2115718712"/>
+        <c:crossAx val="1105743856"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2159,12 +2247,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12760</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>643340</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>119320</xdr:rowOff>
     </xdr:to>
@@ -2266,16 +2354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549660</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2303,16 +2391,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219460</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>54620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2340,16 +2428,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>384560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2695,23 +2783,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -2719,13 +2810,13 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -2733,7 +2824,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2743,13 +2834,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -2757,13 +2848,13 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -2771,7 +2862,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +2876,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2795,7 +2886,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2807,7 +2898,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2819,7 +2910,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2831,7 +2922,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2843,7 +2934,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2853,7 +2944,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2865,7 +2956,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2877,7 +2968,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2889,7 +2980,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2899,7 +2990,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2911,7 +3002,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2923,7 +3014,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +3026,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2945,7 +3036,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2964,7 +3055,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +3074,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3094,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1">
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3023,7 +3114,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1">
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3043,7 +3134,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1">
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3063,7 +3154,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3083,7 +3174,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3103,7 +3194,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3122,7 +3213,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3132,7 +3223,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1">
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3144,7 +3235,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1">
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3156,7 +3247,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3185,7 +3276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="72">
+    <row r="34" spans="1:9" ht="78" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>1</v>
       </c>
@@ -3205,7 +3296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="72">
+    <row r="35" spans="1:9" s="13" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="B35" s="13">
         <v>2</v>
       </c>
@@ -3225,7 +3316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="192">
+    <row r="36" spans="1:9" ht="208" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>3</v>
       </c>
@@ -3245,7 +3336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" ht="96">
+    <row r="37" spans="1:9" s="13" customFormat="1" ht="104" x14ac:dyDescent="0.15">
       <c r="B37" s="13">
         <v>4</v>
       </c>
@@ -3265,7 +3356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="84">
+    <row r="38" spans="1:9" ht="91" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>5</v>
       </c>
@@ -3285,7 +3376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" ht="84">
+    <row r="39" spans="1:9" s="13" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="B39" s="13">
         <v>6</v>
       </c>
@@ -3305,7 +3396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="156">
+    <row r="40" spans="1:9" ht="169" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>7</v>
       </c>
@@ -3325,7 +3416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="132">
+    <row r="41" spans="1:9" ht="143" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>8</v>
       </c>
@@ -3345,7 +3436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" ht="108">
+    <row r="42" spans="1:9" s="13" customFormat="1" ht="104" x14ac:dyDescent="0.15">
       <c r="B42" s="13">
         <v>9</v>
       </c>
@@ -3365,7 +3456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="132">
+    <row r="43" spans="1:9" ht="130" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>10</v>
       </c>
@@ -3385,7 +3476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="132">
+    <row r="44" spans="1:9" ht="117" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>11</v>
       </c>
@@ -3405,7 +3496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="72">
+    <row r="45" spans="1:9" ht="65" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>12</v>
       </c>
@@ -3423,7 +3514,7 @@
       </c>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" ht="132">
+    <row r="46" spans="1:9" s="16" customFormat="1" ht="130" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>13</v>
       </c>
@@ -3443,7 +3534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" ht="156">
+    <row r="47" spans="1:9" s="16" customFormat="1" ht="143" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>14</v>
       </c>
@@ -3463,7 +3554,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" ht="108">
+    <row r="48" spans="1:9" s="16" customFormat="1" ht="117" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>15</v>
       </c>
@@ -3483,7 +3574,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="16" customFormat="1" ht="156">
+    <row r="49" spans="2:9" s="16" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>16</v>
       </c>
@@ -3503,7 +3594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="19" customFormat="1" ht="108">
+    <row r="50" spans="2:9" s="19" customFormat="1" ht="117" x14ac:dyDescent="0.15">
       <c r="B50" s="16">
         <v>23</v>
       </c>
@@ -3523,7 +3614,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="19" customFormat="1" ht="108">
+    <row r="51" spans="2:9" s="19" customFormat="1" ht="117" x14ac:dyDescent="0.15">
       <c r="B51" s="16">
         <v>24</v>
       </c>
@@ -3543,7 +3634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="25" customFormat="1" ht="252">
+    <row r="52" spans="2:9" s="25" customFormat="1" ht="273" x14ac:dyDescent="0.15">
       <c r="B52" s="25">
         <v>17</v>
       </c>
@@ -3563,7 +3654,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="25" customFormat="1" ht="156">
+    <row r="53" spans="2:9" s="25" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="B53" s="25">
         <v>18</v>
       </c>
@@ -3583,10 +3674,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E54"/>
     </row>
-    <row r="56" spans="2:9" s="25" customFormat="1" ht="108">
+    <row r="56" spans="2:9" s="25" customFormat="1" ht="117" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>21</v>
       </c>
@@ -3606,7 +3697,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="25" customFormat="1" ht="156">
+    <row r="57" spans="2:9" s="25" customFormat="1" ht="169" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>22</v>
       </c>
@@ -3626,7 +3717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="25" customFormat="1" ht="108">
+    <row r="58" spans="2:9" s="25" customFormat="1" ht="117" x14ac:dyDescent="0.15">
       <c r="B58" s="25">
         <v>25</v>
       </c>
@@ -3646,7 +3737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="25" customFormat="1" ht="180">
+    <row r="59" spans="2:9" s="25" customFormat="1" ht="182" x14ac:dyDescent="0.15">
       <c r="B59" s="25">
         <v>26</v>
       </c>
@@ -3666,7 +3757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="28" customFormat="1" ht="108">
+    <row r="60" spans="2:9" s="28" customFormat="1" ht="117" x14ac:dyDescent="0.15">
       <c r="B60" s="28">
         <v>27</v>
       </c>
@@ -3686,7 +3777,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="28" customFormat="1" ht="108">
+    <row r="61" spans="2:9" s="28" customFormat="1" ht="104" x14ac:dyDescent="0.15">
       <c r="B61" s="28">
         <v>28</v>
       </c>
@@ -3706,7 +3797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="28" customFormat="1" ht="108">
+    <row r="62" spans="2:9" s="28" customFormat="1" ht="104" x14ac:dyDescent="0.15">
       <c r="B62" s="28">
         <v>19</v>
       </c>
@@ -3726,7 +3817,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="28" customFormat="1" ht="84">
+    <row r="63" spans="2:9" s="28" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="B63" s="28">
         <v>20</v>
       </c>
@@ -3746,7 +3837,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:9" s="28" customFormat="1" ht="144">
+    <row r="64" spans="2:9" s="28" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="B64" s="28">
         <v>29</v>
       </c>
@@ -3766,7 +3857,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="2:9" s="28" customFormat="1" ht="132">
+    <row r="65" spans="2:9" s="28" customFormat="1" ht="143" x14ac:dyDescent="0.15">
       <c r="B65" s="28">
         <v>30</v>
       </c>
@@ -3786,7 +3877,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="120">
+    <row r="66" spans="2:9" ht="130" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>31</v>
       </c>
@@ -3806,7 +3897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="120">
+    <row r="67" spans="2:9" ht="130" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>32</v>
       </c>
@@ -3826,7 +3917,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="120">
+    <row r="68" spans="2:9" ht="130" x14ac:dyDescent="0.15">
       <c r="B68">
         <v>33</v>
       </c>
@@ -3846,7 +3937,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="120">
+    <row r="69" spans="2:9" ht="130" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>34</v>
       </c>
@@ -3866,7 +3957,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="72">
+    <row r="70" spans="2:9" ht="78" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>35</v>
       </c>
@@ -3886,7 +3977,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="144">
+    <row r="71" spans="2:9" ht="156" x14ac:dyDescent="0.15">
       <c r="B71">
         <v>36</v>
       </c>
@@ -3913,11 +4004,6 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3929,12 +4015,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
@@ -3948,9 +4034,9 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="31">
         <v>42663.333333333336</v>
@@ -3962,9 +4048,9 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="31">
         <v>42670.333333333336</v>
@@ -3976,9 +4062,9 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -3988,7 +4074,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -3998,9 +4084,9 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="32">
         <v>23</v>
@@ -4012,9 +4098,9 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
@@ -4027,9 +4113,9 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
@@ -4042,9 +4128,9 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
@@ -4057,9 +4143,9 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
@@ -4072,9 +4158,9 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
@@ -4087,9 +4173,9 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
@@ -4102,9 +4188,9 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
@@ -4117,7 +4203,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -4127,24 +4213,24 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
@@ -4160,11 +4246,6 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4176,13 +4257,13 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
@@ -4196,9 +4277,9 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="31">
         <v>42670.333333333336</v>
@@ -4210,9 +4291,9 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="31">
         <v>42677.333333333336</v>
@@ -4224,9 +4305,9 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -4236,7 +4317,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -4246,9 +4327,9 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="32">
         <v>23</v>
@@ -4260,9 +4341,9 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
@@ -4275,9 +4356,9 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
@@ -4290,9 +4371,9 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
@@ -4305,9 +4386,9 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
@@ -4320,9 +4401,9 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
@@ -4335,9 +4416,9 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
@@ -4350,9 +4431,9 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
@@ -4365,7 +4446,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -4375,24 +4456,24 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
@@ -4401,15 +4482,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
         <v>152</v>
-      </c>
-      <c r="F16" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4419,11 +4500,6 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4432,12 +4508,12 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
@@ -4445,15 +4521,13 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="F1" s="3"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="32"/>
@@ -4463,9 +4537,9 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
@@ -4475,9 +4549,9 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -4487,7 +4561,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -4497,9 +4571,9 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="32">
         <v>23</v>
@@ -4511,9 +4585,9 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
@@ -4526,9 +4600,9 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
@@ -4541,9 +4615,9 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
@@ -4556,9 +4630,9 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
@@ -4571,9 +4645,9 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
@@ -4586,9 +4660,9 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
@@ -4601,9 +4675,9 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
@@ -4616,7 +4690,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -4626,24 +4700,24 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
@@ -4659,11 +4733,6 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4672,12 +4741,12 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G16" activeCellId="1" sqref="F1 G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
@@ -4685,15 +4754,13 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="F1" s="3"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="32"/>
@@ -4703,9 +4770,9 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
@@ -4715,9 +4782,9 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -4727,7 +4794,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -4737,9 +4804,9 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="32">
         <v>23</v>
@@ -4751,9 +4818,9 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
@@ -4766,9 +4833,9 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
@@ -4781,9 +4848,9 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
@@ -4796,9 +4863,9 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
@@ -4811,9 +4878,9 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
@@ -4826,9 +4893,9 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
@@ -4841,9 +4908,9 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
@@ -4856,7 +4923,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -4866,24 +4933,24 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
@@ -4899,11 +4966,6 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4912,12 +4974,12 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -4925,15 +4987,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="F1" s="3"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="2"/>
@@ -4943,9 +5003,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="2"/>
@@ -4955,9 +5015,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="2"/>
@@ -4967,7 +5027,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="31"/>
       <c r="C5" s="2"/>
@@ -4977,9 +5037,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="32">
         <v>23</v>
@@ -4991,9 +5051,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
@@ -5006,9 +5066,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
@@ -5021,9 +5081,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
@@ -5036,9 +5096,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
@@ -5051,9 +5111,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
@@ -5066,9 +5126,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
@@ -5081,9 +5141,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
@@ -5096,7 +5156,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5106,24 +5166,24 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
@@ -5139,10 +5199,5 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="627" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="193">
   <si>
     <t>Product Name:</t>
   </si>
@@ -493,6 +493,126 @@
   </si>
   <si>
     <t>* Get familiar/installing with fltk</t>
+  </si>
+  <si>
+    <t>None were made due to studying for a test</t>
+  </si>
+  <si>
+    <t>No Progress was due here</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Start to be able to build windows</t>
+  </si>
+  <si>
+    <t>Start to be able to build Buttons</t>
+  </si>
+  <si>
+    <t>Undersetanding of callBacks</t>
+  </si>
+  <si>
+    <t>Open window in gui</t>
+  </si>
+  <si>
+    <t>task 2</t>
+  </si>
+  <si>
+    <t>task 3</t>
+  </si>
+  <si>
+    <t>task 4</t>
+  </si>
+  <si>
+    <t>Create Robot Parts</t>
+  </si>
+  <si>
+    <t>Used pointer callbacks</t>
+  </si>
+  <si>
+    <t>Create Robot Models</t>
+  </si>
+  <si>
+    <t>Display Models List</t>
+  </si>
+  <si>
+    <t>Loop through parts for models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store and post models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">task 5 </t>
+  </si>
+  <si>
+    <t>task 6</t>
+  </si>
+  <si>
+    <t>task 7</t>
+  </si>
+  <si>
+    <t>task 8</t>
+  </si>
+  <si>
+    <t>task 9</t>
+  </si>
+  <si>
+    <t>task 10</t>
+  </si>
+  <si>
+    <t>task 11</t>
+  </si>
+  <si>
+    <t>task 12</t>
+  </si>
+  <si>
+    <t>create customer</t>
+  </si>
+  <si>
+    <t>create sales</t>
+  </si>
+  <si>
+    <t>create order</t>
+  </si>
+  <si>
+    <t>load to csv files</t>
+  </si>
+  <si>
+    <t>save to csv files</t>
+  </si>
+  <si>
+    <t>load and save to specific files</t>
+  </si>
+  <si>
+    <t>copy and past from multi output</t>
+  </si>
+  <si>
+    <t>view all orders</t>
+  </si>
+  <si>
+    <t>Before making order ask for customer info</t>
+  </si>
+  <si>
+    <t>Create employees</t>
+  </si>
+  <si>
+    <t>Create order and view it</t>
+  </si>
+  <si>
+    <t>save to files for no loosing of history</t>
+  </si>
+  <si>
+    <t>load from files into vectors</t>
+  </si>
+  <si>
+    <t>load from and save to specific files</t>
+  </si>
+  <si>
+    <t>copy and paste to fill in part numbers</t>
+  </si>
+  <si>
+    <t>save to order files, laod and display</t>
   </si>
 </sst>
 </file>
@@ -602,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,6 +796,7 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +904,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -834,31 +954,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1184183216"/>
-        <c:axId val="1184186944"/>
+        <c:axId val="74552064"/>
+        <c:axId val="196270576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1184183216"/>
+        <c:axId val="74552064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +1022,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -915,7 +1034,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1184186944"/>
+        <c:crossAx val="196270576"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -923,7 +1042,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1184186944"/>
+        <c:axId val="196270576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +1075,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -970,7 +1088,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1184183216"/>
+        <c:crossAx val="74552064"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1086,28 +1204,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,11 +1241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1184215280"/>
-        <c:axId val="1184219040"/>
+        <c:axId val="151650288"/>
+        <c:axId val="156854992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1184215280"/>
+        <c:axId val="151650288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1282,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1184219040"/>
+        <c:crossAx val="156854992"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1172,7 +1290,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1184219040"/>
+        <c:axId val="156854992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1337,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1184215280"/>
+        <c:crossAx val="151650288"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1335,28 +1453,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,11 +1490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1184246464"/>
-        <c:axId val="1184250224"/>
+        <c:axId val="157166848"/>
+        <c:axId val="157169968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1184246464"/>
+        <c:axId val="157166848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1531,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1184250224"/>
+        <c:crossAx val="157169968"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1539,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1184250224"/>
+        <c:axId val="157169968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1586,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1184246464"/>
+        <c:crossAx val="157166848"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,7 +1656,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.151063900396577"/>
+          <c:y val="0.0853080568720379"/>
+          <c:w val="0.834887193924678"/>
+          <c:h val="0.817290741500914"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
@@ -1584,28 +1712,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,11 +1749,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1147533536"/>
-        <c:axId val="1147536656"/>
+        <c:axId val="156969664"/>
+        <c:axId val="157022176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1147533536"/>
+        <c:axId val="156969664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1790,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1147536656"/>
+        <c:crossAx val="157022176"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,7 +1798,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1147536656"/>
+        <c:axId val="157022176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1831,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00351222641968617"/>
+              <c:y val="0.42401238944658"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1717,7 +1852,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1147533536"/>
+        <c:crossAx val="156969664"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1833,28 +1968,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,11 +2005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1147569872"/>
-        <c:axId val="1147573632"/>
+        <c:axId val="72028896"/>
+        <c:axId val="157000320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1147569872"/>
+        <c:axId val="72028896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +2046,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1147573632"/>
+        <c:crossAx val="157000320"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1919,7 +2054,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1147573632"/>
+        <c:axId val="157000320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,7 +2101,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1147569872"/>
+        <c:crossAx val="72028896"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2075,28 +2210,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,11 +2247,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1105743856"/>
-        <c:axId val="1105747616"/>
+        <c:axId val="151384608"/>
+        <c:axId val="151387728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1105743856"/>
+        <c:axId val="151384608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,7 +2288,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1105747616"/>
+        <c:crossAx val="151387728"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2161,7 +2296,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1105747616"/>
+        <c:axId val="151387728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2343,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1105743856"/>
+        <c:crossAx val="151384608"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2783,12 +2918,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1"/>
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
@@ -3041,8 +3177,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="6">
-        <f>COUNT(B34:B149)</f>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
@@ -3060,8 +3195,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ref="B22:B29" si="0">B21</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
@@ -3079,14 +3213,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" ref="D23:D28" si="1">D22+7</f>
+        <f t="shared" ref="D23:D28" si="0">D22+7</f>
         <v>42656</v>
       </c>
       <c r="E23" s="3"/>
@@ -3099,14 +3232,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42663</v>
       </c>
       <c r="E24" s="3"/>
@@ -3119,14 +3251,13 @@
         <v>13</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42670</v>
       </c>
       <c r="E25" s="3"/>
@@ -3138,15 +3269,14 @@
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B26" s="32">
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42677</v>
       </c>
       <c r="E26" s="3"/>
@@ -3158,15 +3288,14 @@
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B27" s="32">
+        <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42684</v>
       </c>
       <c r="E27" s="3"/>
@@ -3178,15 +3307,14 @@
       <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B28" s="32">
+        <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42691</v>
       </c>
       <c r="E28" s="3"/>
@@ -3198,9 +3326,8 @@
       <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B29" s="32">
+        <v>0</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -3276,10 +3403,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="78" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
@@ -3296,10 +3426,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="13">
         <v>2</v>
       </c>
+      <c r="D35" s="13">
+        <v>2</v>
+      </c>
       <c r="E35" s="14">
         <v>1</v>
       </c>
@@ -3316,10 +3449,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="208" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>3</v>
       </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
@@ -3336,10 +3472,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="13">
         <v>4</v>
       </c>
+      <c r="D37" s="13">
+        <v>2</v>
+      </c>
       <c r="E37" s="14">
         <v>1</v>
       </c>
@@ -3356,10 +3495,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="91" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>5</v>
       </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
@@ -3376,10 +3518,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B39" s="13">
         <v>6</v>
       </c>
+      <c r="D39" s="13">
+        <v>3</v>
+      </c>
       <c r="E39" s="14">
         <v>1</v>
       </c>
@@ -3396,10 +3541,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="169" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>7</v>
       </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
@@ -3416,7 +3564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="143" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>8</v>
       </c>
@@ -3436,10 +3584,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B42" s="13">
         <v>9</v>
       </c>
+      <c r="D42" s="13">
+        <v>3</v>
+      </c>
       <c r="E42" s="14">
         <v>1</v>
       </c>
@@ -3456,10 +3607,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="130" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>10</v>
       </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
@@ -3476,10 +3630,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="117" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>11</v>
       </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
@@ -3496,10 +3653,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="65" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>12</v>
       </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
@@ -3514,7 +3674,7 @@
       </c>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" ht="130" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>13</v>
       </c>
@@ -3534,10 +3694,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" ht="143" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>14</v>
       </c>
+      <c r="D47" s="16">
+        <v>8</v>
+      </c>
       <c r="E47" s="17">
         <v>2</v>
       </c>
@@ -3554,10 +3717,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>15</v>
       </c>
+      <c r="D48" s="16">
+        <v>8</v>
+      </c>
       <c r="E48" s="17">
         <v>2</v>
       </c>
@@ -3574,10 +3740,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="16" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>16</v>
       </c>
+      <c r="D49" s="16">
+        <v>8</v>
+      </c>
       <c r="E49" s="17">
         <v>2</v>
       </c>
@@ -3594,7 +3763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="19" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B50" s="16">
         <v>23</v>
       </c>
@@ -3614,7 +3783,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="19" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B51" s="16">
         <v>24</v>
       </c>
@@ -3634,7 +3803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="25" customFormat="1" ht="273" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" s="25" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B52" s="25">
         <v>17</v>
       </c>
@@ -3654,10 +3823,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="25" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" s="25" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B53" s="25">
         <v>18</v>
       </c>
+      <c r="D53" s="25">
+        <v>8</v>
+      </c>
       <c r="E53" s="26">
         <v>3</v>
       </c>
@@ -3677,7 +3849,7 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E54"/>
     </row>
-    <row r="56" spans="2:9" s="25" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" s="25" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>21</v>
       </c>
@@ -3697,7 +3869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="25" customFormat="1" ht="169" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" s="25" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>22</v>
       </c>
@@ -3717,7 +3889,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="25" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" s="25" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B58" s="25">
         <v>25</v>
       </c>
@@ -3737,10 +3909,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="25" customFormat="1" ht="182" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" s="25" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B59" s="25">
         <v>26</v>
       </c>
+      <c r="D59" s="25">
+        <v>8</v>
+      </c>
       <c r="E59" s="26">
         <v>3</v>
       </c>
@@ -3757,7 +3932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="28" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" s="28" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B60" s="28">
         <v>27</v>
       </c>
@@ -3777,7 +3952,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="28" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" s="28" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B61" s="28">
         <v>28</v>
       </c>
@@ -3797,7 +3972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="28" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" s="28" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B62" s="28">
         <v>19</v>
       </c>
@@ -3817,7 +3992,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="28" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="28">
         <v>20</v>
       </c>
@@ -3837,7 +4012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:9" s="28" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" s="28" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B64" s="28">
         <v>29</v>
       </c>
@@ -3857,7 +4032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="2:9" s="28" customFormat="1" ht="143" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" s="28" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B65" s="28">
         <v>30</v>
       </c>
@@ -3877,7 +4052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="130" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>31</v>
       </c>
@@ -3897,7 +4072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="130" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>32</v>
       </c>
@@ -3917,7 +4092,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="130" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B68">
         <v>33</v>
       </c>
@@ -3937,7 +4112,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="130" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>34</v>
       </c>
@@ -3957,7 +4132,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="78" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>35</v>
       </c>
@@ -3977,7 +4152,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="156" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B71">
         <v>36</v>
       </c>
@@ -4009,15 +4184,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -4089,7 +4265,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="32">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -4104,7 +4280,7 @@
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -4119,7 +4295,7 @@
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -4134,7 +4310,7 @@
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -4149,7 +4325,7 @@
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -4164,7 +4340,7 @@
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -4179,7 +4355,7 @@
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -4194,7 +4370,7 @@
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -4237,6 +4413,11 @@
       </c>
       <c r="H15" s="10" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F16" s="33" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4251,16 +4432,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -4332,7 +4513,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="32">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -4347,7 +4528,7 @@
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -4362,7 +4543,7 @@
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -4377,7 +4558,7 @@
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -4392,7 +4573,7 @@
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -4407,7 +4588,7 @@
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -4422,7 +4603,7 @@
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -4437,7 +4618,7 @@
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -4489,8 +4670,13 @@
       <c r="B16" t="s">
         <v>151</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="33" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="33" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4505,19 +4691,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="32">
+        <v>3</v>
+      </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
@@ -4529,7 +4722,9 @@
       <c r="A2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="31">
+        <v>42677.333333333336</v>
+      </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -4541,7 +4736,9 @@
       <c r="A3" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="31">
+        <v>42684.333333333336</v>
+      </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -4576,7 +4773,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="32">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -4591,7 +4788,7 @@
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -4606,7 +4803,7 @@
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -4621,7 +4818,7 @@
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -4636,7 +4833,7 @@
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -4650,8 +4847,7 @@
         <v>139</v>
       </c>
       <c r="B11" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -4665,8 +4861,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -4681,7 +4876,7 @@
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -4724,6 +4919,27 @@
       </c>
       <c r="H15" s="10" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4738,19 +4954,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" activeCellId="1" sqref="F1 G16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="32">
+        <v>4</v>
+      </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
@@ -4762,7 +4986,9 @@
       <c r="A2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="31">
+        <v>42684.333333333336</v>
+      </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -4774,7 +5000,9 @@
       <c r="A3" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="31">
+        <v>42691.333333333336</v>
+      </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -4809,7 +5037,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="32">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -4823,8 +5051,7 @@
         <v>135</v>
       </c>
       <c r="B7" s="32">
-        <f t="shared" ref="B7:B13" si="0">B6</f>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -4838,8 +5065,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -4853,8 +5079,8 @@
         <v>137</v>
       </c>
       <c r="B9" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" ref="B9:B10" si="0">B8</f>
+        <v>11</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -4869,7 +5095,7 @@
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -4883,8 +5109,7 @@
         <v>139</v>
       </c>
       <c r="B11" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -4898,8 +5123,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -4913,8 +5137,7 @@
         <v>141</v>
       </c>
       <c r="B13" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -4957,6 +5180,39 @@
       </c>
       <c r="H15" s="10" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4971,19 +5227,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2">
+        <v>5</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4995,7 +5258,9 @@
       <c r="A2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="31">
+        <v>42691.333333333336</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5007,7 +5272,9 @@
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="31">
+        <v>42696.333333333336</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5042,7 +5309,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="32">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5056,8 +5323,8 @@
         <v>135</v>
       </c>
       <c r="B7" s="32">
-        <f t="shared" ref="B7:B13" si="0">B6</f>
-        <v>23</v>
+        <f t="shared" ref="B7:B9" si="0">B6</f>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5072,7 +5339,7 @@
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5087,7 +5354,7 @@
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5101,8 +5368,7 @@
         <v>138</v>
       </c>
       <c r="B10" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5116,8 +5382,7 @@
         <v>139</v>
       </c>
       <c r="B11" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5131,8 +5396,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5146,8 +5410,7 @@
         <v>141</v>
       </c>
       <c r="B13" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5192,6 +5455,94 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
